--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_14.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>592173.9561957517</v>
+        <v>576859.5061094403</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514382</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -713,13 +713,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>102.3382270926888</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>145.4467082856154</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200.3360962888295</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856154</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>87.20907807295006</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>81.00537765493284</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>9.234466016111892</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>126.3585902003867</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1224,7 +1224,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>10.9492201923453</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>116.325098768111</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1743,13 +1743,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0.7702434941954243</v>
       </c>
       <c r="W15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
-        <v>35.40726547353844</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1841,76 +1841,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>34.66067414728066</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
@@ -1986,7 +1986,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,67 +2081,67 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>190.3453970742847</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,7 +2172,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>159.582897591854</v>
       </c>
       <c r="T21" t="n">
-        <v>2.687115281373639</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>82.46119763909351</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>190.3453970742846</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>88.46061606973221</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>34.66067414728042</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2552,20 +2552,20 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>80.33470701582003</v>
-      </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
@@ -2597,16 +2597,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>64.38401073897946</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>11.5314447954234</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,68 +2789,68 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2925,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>107.2445529780796</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2956,61 +2956,61 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>212.2853856434421</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>27.4440772567387</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>39.56167626407046</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>241.0142888776591</v>
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>83.40091804193491</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.197928092376154</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3436,52 +3436,52 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,67 +3500,67 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>25.06485607370357</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2853856434421</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,19 +3819,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>121.8839946188103</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.05241763862477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>241.0142888776591</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>115.7580399383184</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4346,34 +4346,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271062</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066563</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125842</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684842</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C3" t="n">
         <v>817.1412885554689</v>
@@ -4404,55 +4404,55 @@
         <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>19.28114311021272</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>257.8852890990951</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>496.4894350879775</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>735.0935810768599</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>917.7370586902107</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="4">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>233.710825578336</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4583,34 +4583,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.057155510636</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S5" t="n">
-        <v>964.057155510636</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T5" t="n">
-        <v>964.057155510636</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>964.057155510636</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V5" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W5" t="n">
-        <v>964.057155510636</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X5" t="n">
-        <v>720.608378866536</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.057155510636</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D6" t="n">
         <v>668.2068788942177</v>
@@ -4641,55 +4641,55 @@
         <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.8108274061909</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.057155510636</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4753,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729607</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211349</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057935</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686976</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.202150075937</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>874.397100218585</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953333</v>
+        <v>954.7294120600181</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953333</v>
+        <v>743.5980286395683</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U8" t="n">
-        <v>812.6742080953333</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="W8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y8" t="n">
-        <v>812.6742080953333</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>795.8418184905679</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C9" t="n">
-        <v>795.8418184905679</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>540.5358718529395</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>381.298416847484</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>234.763858874369</v>
       </c>
       <c r="G9" t="n">
         <v>223.7040404982626</v>
@@ -4878,55 +4878,55 @@
         <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.8108274061909</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950733</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839557</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973067</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.057155510636</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.057155510636</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>477.159602222436</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>233.710825578336</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
         <v>19.28114311021272</v>
@@ -5051,40 +5051,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759371</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185851</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U11" t="n">
-        <v>964.057155510636</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V11" t="n">
-        <v>964.057155510636</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W11" t="n">
-        <v>964.057155510636</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>964.057155510636</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>720.608378866536</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="D12" t="n">
         <v>19.28114311021272</v>
@@ -5121,49 +5121,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363992</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>374.6018090363992</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N12" t="n">
-        <v>473.4149733950733</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.0191193839557</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973067</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>964.057155510636</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>933.9571464551991</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>705.7335281915882</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>470.5814199598456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>227.1326433157456</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5227,22 +5227,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="C14" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D14" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E14" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F14" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E14" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F14" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5297,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5379,28 +5379,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U15" t="n">
-        <v>533.6469426057913</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V15" t="n">
-        <v>298.4948343740486</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="W15" t="n">
-        <v>55.04605772994853</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
         <v>19.28114311021272</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D17" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5513,7 +5513,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K17" t="n">
         <v>122.2961490211351</v>
@@ -5558,7 +5558,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5619,19 +5619,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>929.0463735436861</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T18" t="n">
-        <v>726.8597789024521</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U18" t="n">
-        <v>498.6361606388412</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V18" t="n">
-        <v>263.4840524070985</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X18" t="n">
         <v>20.03527576299844</v>
@@ -5707,10 +5707,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>710.516763498309</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>787.9255531013317</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="C21" t="n">
-        <v>613.4725238202047</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D21" t="n">
-        <v>464.5381141589534</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E21" t="n">
-        <v>305.3006591534979</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>701.6927800111441</v>
       </c>
       <c r="T21" t="n">
-        <v>787.9255531013317</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="U21" t="n">
-        <v>787.9255531013317</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="V21" t="n">
-        <v>787.9255531013317</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="W21" t="n">
-        <v>787.9255531013317</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="X21" t="n">
-        <v>787.9255531013317</v>
+        <v>499.5061853699102</v>
       </c>
       <c r="Y21" t="n">
-        <v>787.9255531013317</v>
+        <v>499.5061853699102</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>946.3215033461793</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C23" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D23" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E23" t="n">
-        <v>114.6452713866835</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F23" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G23" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H23" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -5999,40 +5999,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P23" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T23" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U23" t="n">
-        <v>601.5428246748836</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V23" t="n">
-        <v>601.5428246748836</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W23" t="n">
-        <v>358.0940480307835</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X23" t="n">
-        <v>358.0940480307835</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y23" t="n">
-        <v>358.0940480307835</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>234.8108274061909</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S24" t="n">
-        <v>874.7029978644421</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T24" t="n">
-        <v>874.7029978644421</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U24" t="n">
-        <v>874.7029978644421</v>
+        <v>533.6469426057911</v>
       </c>
       <c r="V24" t="n">
-        <v>639.5508896326994</v>
+        <v>298.4948343740484</v>
       </c>
       <c r="W24" t="n">
-        <v>396.1021129885993</v>
+        <v>55.04605772994836</v>
       </c>
       <c r="X24" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.2506127830665</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="25">
@@ -6172,10 +6172,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
         <v>19.28114311021272</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>343.8760884571613</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
-        <v>343.8760884571613</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>343.8760884571613</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>343.8760884571613</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>110.334904905842</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>952.409231474855</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>750.222636833621</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>521.9990185700101</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>521.9990185700101</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>278.55024192591</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>278.55024192591</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>278.55024192591</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="28">
@@ -6412,16 +6412,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X29" t="n">
-        <v>953.9655401424092</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>479.7536884346249</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C30" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>305.3006591534979</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
         <v>20.03527576299844</v>
@@ -6546,19 +6546,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>855.7293242196467</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>855.7293242196467</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y30" t="n">
-        <v>647.9690254546929</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G32" t="n">
         <v>233.7108255783361</v>
@@ -6743,7 +6743,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>380.2300195200815</v>
+        <v>380.6929175551172</v>
       </c>
       <c r="C33" t="n">
-        <v>205.7769902389545</v>
+        <v>206.2398882739901</v>
       </c>
       <c r="D33" t="n">
-        <v>205.7769902389545</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E33" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>59.24243226583945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,16 +6780,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6804,25 +6804,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>756.2056553051034</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>548.4453565401495</v>
+        <v>380.6929175551172</v>
       </c>
     </row>
     <row r="34">
@@ -6883,10 +6883,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,16 +6911,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>104.2786273205085</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D36" t="n">
         <v>20.03527576299844</v>
@@ -7017,13 +7017,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
         <v>725.4530095217538</v>
@@ -7041,25 +7041,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>555.4877027295624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>312.0389260854624</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>312.0389260854624</v>
+        <v>719.3983504903987</v>
       </c>
       <c r="Y36" t="n">
-        <v>104.2786273205085</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
         <v>19.28114311021272</v>
@@ -7129,16 +7129,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K38" t="n">
         <v>122.2961490211351</v>
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>219.0522088294242</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>44.59917954829714</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D39" t="n">
-        <v>44.59917954829714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>44.59917954829714</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7254,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>634.6640077999109</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>634.6640077999109</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>426.8125075943781</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>219.0522088294242</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C41" t="n">
         <v>720.6083788665362</v>
@@ -7394,7 +7394,7 @@
         <v>720.6083788665362</v>
       </c>
       <c r="E41" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F41" t="n">
         <v>477.1596022224361</v>
@@ -7403,7 +7403,7 @@
         <v>233.7108255783361</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I41" t="n">
         <v>19.28114311021272</v>
@@ -7454,7 +7454,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,16 +7494,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>248.2447175439888</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M42" t="n">
-        <v>486.8488635328713</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
         <v>964.0571555106362</v>
@@ -7524,16 +7524,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V42" t="n">
-        <v>500.6814290152826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W42" t="n">
-        <v>257.2326523711826</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X42" t="n">
-        <v>49.38115216564972</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="43">
@@ -7594,10 +7594,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7670,28 +7670,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
@@ -7731,19 +7731,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>496.4894350879777</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>518.4217842253022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>518.4217842253022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>310.6614854603483</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7837,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7994,7 +7994,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714824</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996773</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714824</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361377</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8532,19 +8532,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361377</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221034</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133071</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221034</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,19 +9006,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361377</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,7 +9957,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,22 +10194,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,10 +10437,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11142,7 +11142,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>369.8307175917693</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M42" t="n">
         <v>383.1483227996774</v>
@@ -11154,7 +11154,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11379,22 +11379,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O45" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22589,10 +22589,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22601,13 +22601,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.3313640301775</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>225.4140313774462</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>27.26179070270035</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22799,13 +22799,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>10.13979328157643</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783946</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22863,10 +22863,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270035</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>60.23598749168869</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22929,7 +22929,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -22966,7 +22966,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22993,7 +22993,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>117.0281136687963</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>325.8706680867786</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.2884486374761</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810815</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,19 +23066,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>140.6346519250378</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23097,13 +23097,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>21.08647536425201</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23112,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>126.3942969708653</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -23145,10 +23145,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>66.3759156176843</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858216</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933486</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>142.397655977241</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783946</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>31.11996679652773</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23388,22 +23388,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326061</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23419,7 +23419,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>131.0571773754</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23437,10 +23437,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23549,13 +23549,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23595,7 +23595,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23631,13 +23631,13 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.0303436552298</v>
       </c>
       <c r="W15" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
-        <v>170.365719729939</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G16" t="n">
         <v>167.9909793584588</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23798,7 +23798,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23859,10 +23859,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>137.0224969565572</v>
+        <v>142.630753465213</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23874,7 +23874,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23947,13 +23947,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,28 +23969,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>149.1294050414824</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24026,10 +24026,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24051,7 +24051,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24060,7 +24060,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24093,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>12.10027351198383</v>
       </c>
       <c r="T21" t="n">
-        <v>197.477613413448</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24145,13 +24145,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I22" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>324.414848102618</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>61.00025583355185</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247591</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="24">
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24333,22 +24333,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>83.22255503410561</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>171.1123110561971</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24412,13 +24412,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24440,19 +24440,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>326.5413387258914</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24485,16 +24485,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>108.3244882493363</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24540,7 +24540,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>160.1517263084144</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7466147015374</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,10 +24756,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>143.5657919235178</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,10 +24768,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24813,13 +24813,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>144.45043018284</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>127.189416472325</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,22 +24993,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>120.0009883079001</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>97.78184089914018</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25044,10 +25044,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25123,13 +25123,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T34" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,10 +25160,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25211,10 +25211,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>128.71681180081</v>
@@ -25230,13 +25230,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>89.30758094638082</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25281,7 +25281,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25290,13 +25290,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>204.5750571111013</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
         <v>162.2271725074396</v>
@@ -25369,7 +25369,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,16 +25470,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>120.0043563196803</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25527,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>127.189416472325</v>
+        <v>337.6653060427309</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,19 +25707,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>50.82450436950546</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25764,16 +25764,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>176.6302781386796</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25834,13 +25834,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>342.2575625303455</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X44" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50.77514371154889</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25965,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="46">
@@ -26077,13 +26077,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473617.4616593695</v>
+        <v>473617.4616593693</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473617.4616593693</v>
+        <v>473617.4616593695</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473617.4616593695</v>
+        <v>473617.4616593693</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473617.4616593695</v>
+        <v>473617.4616593692</v>
       </c>
     </row>
     <row r="15">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154771</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910625</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6716.703256796493</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="D4" t="n">
-        <v>6716.703256796493</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="F4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="G4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="H4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="L4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="M4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="N4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="O4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="P4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376166</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>14653.66876376167</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19454.93278017321</v>
+        <v>-21285.34059271909</v>
       </c>
       <c r="C6" t="n">
-        <v>61314.4987513745</v>
+        <v>59484.0909388286</v>
       </c>
       <c r="D6" t="n">
-        <v>61314.49875137454</v>
+        <v>59484.09093882865</v>
       </c>
       <c r="E6" t="n">
-        <v>94942.09875137452</v>
+        <v>93111.69093882861</v>
       </c>
       <c r="F6" t="n">
-        <v>94942.09875137449</v>
+        <v>93111.69093882859</v>
       </c>
       <c r="G6" t="n">
-        <v>94942.09875137451</v>
+        <v>93111.69093882861</v>
       </c>
       <c r="H6" t="n">
-        <v>94942.09875137453</v>
+        <v>93111.69093882864</v>
       </c>
       <c r="I6" t="n">
-        <v>94942.09875137453</v>
+        <v>93111.69093882861</v>
       </c>
       <c r="J6" t="n">
-        <v>31882.15615226831</v>
+        <v>30051.74833972236</v>
       </c>
       <c r="K6" t="n">
-        <v>94942.09875137449</v>
+        <v>93111.69093882861</v>
       </c>
       <c r="L6" t="n">
-        <v>94942.09875137455</v>
+        <v>93111.6909388286</v>
       </c>
       <c r="M6" t="n">
-        <v>94942.09875137452</v>
+        <v>93111.69093882864</v>
       </c>
       <c r="N6" t="n">
-        <v>94942.09875137452</v>
+        <v>93111.69093882861</v>
       </c>
       <c r="O6" t="n">
-        <v>94942.09875137452</v>
+        <v>93111.6909388286</v>
       </c>
       <c r="P6" t="n">
-        <v>94942.09875137453</v>
+        <v>93111.69093882864</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
         <v>241.0142888776591</v>
@@ -26808,7 +26808,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.56571241621288</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M3" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.56571241621288</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141194</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.055561526184</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35252,19 +35252,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141194</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.014288877659</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N12" t="n">
-        <v>99.81127712997385</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O15" t="n">
-        <v>91.0829537758999</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141194</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O24" t="n">
-        <v>169.9067907798016</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36914,22 +36914,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37157,10 +37157,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>231.276337811895</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M42" t="n">
         <v>241.0142888776591</v>
@@ -37874,7 +37874,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O45" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O45" t="n">
-        <v>217.7067518141195</v>
-      </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
